--- a/src/assets/files/Sample_import_account_file_en.xlsx
+++ b/src/assets/files/Sample_import_account_file_en.xlsx
@@ -1,39 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1BCA39-3F00-4285-9666-EB1C3BEFD8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="212"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Sub Type</t>
-  </si>
-  <si>
-    <t>Account Code</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Sub Account of(account)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Level One</t>
+  </si>
+  <si>
+    <t>Level Two</t>
+  </si>
+  <si>
+    <t>Level Three</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Current assets</t>
@@ -42,68 +65,77 @@
     <t>Inventory</t>
   </si>
   <si>
+    <t>Inventory 2</t>
+  </si>
+  <si>
+    <t>Name 1</t>
+  </si>
+  <si>
+    <t>SAV-001001</t>
+  </si>
+  <si>
+    <t>Description of the Charts</t>
+  </si>
+  <si>
+    <t>Inventory Asset 2</t>
+  </si>
+  <si>
+    <t>Name 2</t>
+  </si>
+  <si>
     <t>Prepaid Expenses</t>
   </si>
   <si>
-    <t>Inventory 2</t>
-  </si>
-  <si>
-    <t>Inventory Asset 2</t>
+    <t>Level two</t>
   </si>
   <si>
     <t>Prepaid Expenses 2</t>
   </si>
   <si>
+    <t>Name 3</t>
+  </si>
+  <si>
     <t>Other current assets</t>
   </si>
   <si>
+    <t>Uncategorised Asset 2</t>
+  </si>
+  <si>
+    <t>Name 4</t>
+  </si>
+  <si>
     <t>Undeposited Funds</t>
   </si>
   <si>
-    <t>Uncategorised Asset 2</t>
-  </si>
-  <si>
     <t>Undeposited Funds 2</t>
   </si>
   <si>
+    <t>Name 5</t>
+  </si>
+  <si>
     <t>Assets available for sale</t>
   </si>
   <si>
+    <t>LEvel Two</t>
+  </si>
+  <si>
+    <t>Available for sale assets (short-term) 2</t>
+  </si>
+  <si>
+    <t>Name 6</t>
+  </si>
+  <si>
     <t>Allowance for bad debts</t>
   </si>
   <si>
-    <t>11201</t>
-  </si>
-  <si>
-    <t>11251</t>
-  </si>
-  <si>
-    <t>11301</t>
-  </si>
-  <si>
-    <t>11311</t>
-  </si>
-  <si>
-    <t>11301N</t>
-  </si>
-  <si>
-    <t>11351</t>
-  </si>
-  <si>
-    <t>11371</t>
-  </si>
-  <si>
     <t>Allowance for bad debts 2</t>
-  </si>
-  <si>
-    <t>Available for sale assets (short-term) 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +161,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -185,11 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,23 +542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="100.5703125" customWidth="1"/>
     <col min="5" max="5" width="80" customWidth="1"/>
-    <col min="6" max="1024" width="11.42578125"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1"/>
+    <col min="7" max="7" width="69.140625" customWidth="1"/>
+    <col min="8" max="1024" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,114 +576,172 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
